--- a/CSV/Comment.xlsx
+++ b/CSV/Comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD9CBD-1781-46DA-AEC4-92AC07DEAC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D109C-4063-4222-BA36-1AB4AD394E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>この行はいじらない</t>
   </si>
   <si>
-    <t>1_LC</t>
-  </si>
-  <si>
     <t>実</t>
   </si>
   <si>
@@ -67,16 +64,10 @@
     <t>ゲーム開始時、マップをカメラで眺めている時。</t>
   </si>
   <si>
-    <t>1_C</t>
-  </si>
-  <si>
     <t>解</t>
   </si>
   <si>
     <t>SoundWave'/Game/Voice/Commentary/01.01'</t>
-  </si>
-  <si>
-    <t>2_LC</t>
   </si>
   <si>
     <t>さぁ、方向を定めました。
@@ -89,18 +80,12 @@
     <t>方向選択で真ん中を選んだ時</t>
   </si>
   <si>
-    <t>2_C</t>
-  </si>
-  <si>
     <t>ストレートに高得点狙いでしょう。</t>
   </si>
   <si>
     <t>SoundWave'/Game/Voice/Commentary/02.02'</t>
   </si>
   <si>
-    <t>3_LC</t>
-  </si>
-  <si>
     <t>これは、狙いを横にずらしているようですが、何か狙いがあるのでしょうか。</t>
   </si>
   <si>
@@ -110,72 +95,45 @@
     <t>方向選択で左右を選んだ時</t>
   </si>
   <si>
-    <t>3_C</t>
-  </si>
-  <si>
     <t>地道に点数を稼ぐつもりでしょう。</t>
   </si>
   <si>
     <t>SoundWave'/Game/Voice/Commentary/03.03'</t>
   </si>
   <si>
-    <t>4_1_LC</t>
-  </si>
-  <si>
     <t>長めに助走を取って</t>
   </si>
   <si>
     <t>最大パワーの8割以上で投げた時。</t>
   </si>
   <si>
-    <t>4_2_LC</t>
-  </si>
-  <si>
     <t>投げたー！</t>
   </si>
   <si>
-    <t>4_3_LC</t>
-  </si>
-  <si>
     <t>力強い1脚だ。</t>
   </si>
   <si>
-    <t>4_C</t>
-  </si>
-  <si>
     <t>相手を吹き飛ばすつもりでしょう</t>
   </si>
   <si>
     <t>SoundWave'/Game/Voice/Commentary/04.04'</t>
   </si>
   <si>
-    <t>5_1_LC</t>
-  </si>
-  <si>
     <t>おっと、これは弱いんじゃないか～？</t>
   </si>
   <si>
     <t>最大パワーの8割未満だった時。</t>
   </si>
   <si>
-    <t>5_2_LC</t>
-  </si>
-  <si>
     <t>ここで力を弱く選択したようです</t>
   </si>
   <si>
-    <t>5_C</t>
-  </si>
-  <si>
     <t>ハウスにピタリと止まることに期待です。</t>
   </si>
   <si>
     <t>SoundWave'/Game/Voice/Commentary/05.05'</t>
   </si>
   <si>
-    <t>6_LC</t>
-  </si>
-  <si>
     <t>ハウスにインしたー。</t>
   </si>
   <si>
@@ -185,21 +143,12 @@
     <t>椅子がハウス内で止まった時。</t>
   </si>
   <si>
-    <t>6_1_C</t>
-  </si>
-  <si>
     <t>素晴らしい</t>
   </si>
   <si>
-    <t>6_2_C</t>
-  </si>
-  <si>
     <t>コントロールです。</t>
   </si>
   <si>
-    <t>7_LC</t>
-  </si>
-  <si>
     <t>やってしまった～...これはアウトだー。</t>
   </si>
   <si>
@@ -209,33 +158,18 @@
     <t>アウトゾーンに止まった時。</t>
   </si>
   <si>
-    <t>7_1_C</t>
-  </si>
-  <si>
     <t>やってしまいましたね～</t>
   </si>
   <si>
-    <t>7_2_C</t>
-  </si>
-  <si>
     <t>厳しい戦いになりそうですね</t>
   </si>
   <si>
-    <t>8_LC</t>
-  </si>
-  <si>
     <t>イベント１で女子が廊下に侵入した時。</t>
   </si>
   <si>
-    <t>8_C</t>
-  </si>
-  <si>
     <t>SoundWave'/Game/Voice/Commentary/08.08'</t>
   </si>
   <si>
-    <t>9_LC</t>
-  </si>
-  <si>
     <t>先ほどの床を透かさず男子が拭きに来ました。女子に優しい男子はモテます！</t>
   </si>
   <si>
@@ -243,9 +177,6 @@
   </si>
   <si>
     <t>イベント２で男子が廊下に侵入した時。</t>
-  </si>
-  <si>
-    <t>9_C</t>
   </si>
   <si>
     <t>磨かれた床は余計に滑りそうですね。私も拭きに参加したいです！</t>
@@ -619,14 +550,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>8_1_LC</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>8_2_LC</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>おっと、ここでアクシデントが発生しました！女子がコースに入ってきます。
 あーっと！転んでしまったー。床が水浸しだー。</t>
     <phoneticPr fontId="18"/>
@@ -650,6 +573,106 @@
   </si>
   <si>
     <t>水の上はスピンがやりにくそうですね。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_4_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_4_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_4_3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_5_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_5_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_6_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_6_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_7</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_7_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_7_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_8_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_8_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_9</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2311,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2326,7 +2349,7 @@
     <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="46" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -2341,7 +2364,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="41" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -2356,7 +2379,7 @@
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="43" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -2372,7 +2395,7 @@
     <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="32" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -2387,7 +2410,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -2402,7 +2425,7 @@
     </row>
     <row r="10" spans="1:11" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="37" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -2417,7 +2440,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -2432,7 +2455,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -2447,7 +2470,7 @@
     </row>
     <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="29" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -2463,7 +2486,7 @@
     <row r="14" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="34" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -2478,7 +2501,7 @@
     </row>
     <row r="16" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="33" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -2494,7 +2517,7 @@
     <row r="17" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="34" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="24"/>
@@ -2509,7 +2532,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="26" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -2524,7 +2547,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="26" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -2539,7 +2562,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -2724,7 +2747,7 @@
     <row r="35" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="36" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
@@ -2739,7 +2762,7 @@
     </row>
     <row r="37" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="29" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -2755,7 +2778,7 @@
     <row r="38" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="39" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="34" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2770,7 +2793,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="26" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -2890,7 +2913,7 @@
     <row r="49" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="50" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="34" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="24"/>
@@ -2905,7 +2928,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="26" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -3167,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3194,7 +3217,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36.6" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
@@ -3216,394 +3239,394 @@
     </row>
     <row r="3" spans="1:5" ht="36.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="59" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="58"/>
     </row>
     <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="56" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="58"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" s="58"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="E17" s="61"/>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E18" s="62"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="6" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E27" s="58"/>
     </row>

--- a/CSV/Comment.xlsx
+++ b/CSV/Comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D109C-4063-4222-BA36-1AB4AD394E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E023BD86-64A7-48B5-8BA9-B0309C2C1521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>この行はいじらない</t>
   </si>
   <si>
-    <t>実</t>
-  </si>
-  <si>
     <t>さぁ、始まりました。第8回目椅ースポーツのお時間です。
 実況解説は放送委員の高野と↑</t>
   </si>
@@ -64,9 +61,6 @@
     <t>ゲーム開始時、マップをカメラで眺めている時。</t>
   </si>
   <si>
-    <t>解</t>
-  </si>
-  <si>
     <t>SoundWave'/Game/Voice/Commentary/01.01'</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
   </si>
   <si>
     <t>長めに助走を取って</t>
-  </si>
-  <si>
-    <t>最大パワーの8割以上で投げた時。</t>
   </si>
   <si>
     <t>投げたー！</t>
@@ -673,6 +664,286 @@
   </si>
   <si>
     <t>C_9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>これはイスバウアーが出るか！</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>投げる時</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>いかに綺麗な曲線が作れるかがポイントです。</t>
+  </si>
+  <si>
+    <t>LC_11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ここは慎重に力加減を見極めたいところ。</t>
+  </si>
+  <si>
+    <t>中心を狙うか、妨害を狙うかが見所です。</t>
+  </si>
+  <si>
+    <t>C_11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>今年は甲子園に連れて行ってくれるでしょうか</t>
+  </si>
+  <si>
+    <t>大きく振りかぶって、投げたー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最大パワーの8割以上で投げた時。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>これはきれいなスイングだ</t>
+  </si>
+  <si>
+    <t>ファー！</t>
+  </si>
+  <si>
+    <t>C_14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どちらもただ椅子が3回回ってるだけですね</t>
+  </si>
+  <si>
+    <t>回転</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ジャストフィッート！</t>
+  </si>
+  <si>
+    <t>あの..</t>
+  </si>
+  <si>
+    <t>すみません。つい熱が入りました。</t>
+  </si>
+  <si>
+    <t>実況</t>
+    <rPh sb="0" eb="2">
+      <t>ジッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>解説</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>見事なインですね！</t>
+  </si>
+  <si>
+    <t>LC_16_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_16_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>狙い通りといったところでしょうか！</t>
+  </si>
+  <si>
+    <t>C_16_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ナイスポイントです！</t>
+  </si>
+  <si>
+    <t>良い位置につけましたね！</t>
+  </si>
+  <si>
+    <t>C_16_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_17_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>惜しい一脚ですね～</t>
+  </si>
+  <si>
+    <t>LC_17_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>少々滑り過ぎたか！？</t>
+  </si>
+  <si>
+    <t>C_17_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>気を落とさず、次のプレイに臨んでほしいですね。</t>
+  </si>
+  <si>
+    <t>C_17_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_18</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドゥクシッ</t>
+  </si>
+  <si>
+    <t>衝突時</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/10.10'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/11.11'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/12.12'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/13.13'</t>
+  </si>
+  <si>
+    <t>LC_14_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LC_14_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>きれいなトリプルアクセルです。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>続けて前方三回転半捻り成功なるか！</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/14_01.14_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/14_02.14_02'</t>
+  </si>
+  <si>
+    <t>C_15_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C_15_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/15.15'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/16_01.16_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/16_02.16_02'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/17_01.17_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/17_02.17_02'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/18.18'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/10.10'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/11.11'</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/12.12'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/13.13'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/14.14'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/15_01.15_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/15_02.15_02'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/16_01.16_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/16_02.16_02'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/17_01.17_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/17_02.17_02'</t>
+  </si>
+  <si>
+    <t>まだ負けたわけではありません！、気にせずに行きましょう！</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1028,7 +1299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1310,51 +1581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1510,6 +1736,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1639,7 +2113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,15 +2144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1694,101 +2159,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1799,16 +2264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1820,13 +2276,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2333,847 +2861,847 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
+      <c r="A4" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="42"/>
+      <c r="A5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="A6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
+      <c r="A15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="A16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="36" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
+      <c r="A36" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
+      <c r="A37" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="39" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
+      <c r="A39" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="28"/>
+      <c r="A40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="28"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="28"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="28"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="28"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="28"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="48" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
     </row>
     <row r="49" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="50" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="25"/>
+      <c r="A50" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="28"/>
+      <c r="A51" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="28"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="22"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="22"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="22"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="28"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="28"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="28"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="28"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="28"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="22"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="28"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="22"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A64" s="26"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="28"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="28"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="22"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A66" s="26"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="28"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="22"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="28"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="22"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A68" s="26"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="28"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="22"/>
     </row>
     <row r="69" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="31"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3188,15 +3716,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.8984375" bestFit="1" customWidth="1"/>
@@ -3204,434 +3732,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>62</v>
+      <c r="E1" s="71" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36.6" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A5" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="51"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="51"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="56"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A22" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="58"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="57"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="57"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="72"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="72"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="75"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="53"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="58"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="57"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="77"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="51"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="53"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="61"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="23" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="55"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="56"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="62"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="58"/>
-    </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="58"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="58"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="51"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="51"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="51"/>
+    </row>
+    <row r="50" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="80" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E26:E27"/>

--- a/CSV/Comment.xlsx
+++ b/CSV/Comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E023BD86-64A7-48B5-8BA9-B0309C2C1521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C50B4-4B45-45AA-A7DC-6DFB33D77D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>この行はいじらない</t>
-  </si>
-  <si>
-    <t>さぁ、始まりました。第8回目椅ースポーツのお時間です。
-実況解説は放送委員の高野と↑</t>
   </si>
   <si>
     <t>SoundWave'/Game/Voice/LiveCommnentary/01.01'</t>
@@ -944,6 +940,15 @@
   </si>
   <si>
     <t>まだ負けたわけではありません！、気にせずに行きましょう！</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SoundVolume</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>さぁ、始まりました。第8回目椅ースポーツのお時間です。
+実況解説は放送委員の高野と</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1299,7 +1304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1984,6 +1989,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2113,7 +2197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2246,6 +2330,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="55" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2285,76 +2453,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2861,23 +2975,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -2892,7 +3006,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -2907,7 +3021,7 @@
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -2923,7 +3037,7 @@
     <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2938,7 +3052,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2953,7 +3067,7 @@
     </row>
     <row r="10" spans="1:11" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -2968,7 +3082,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2983,7 +3097,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2998,7 +3112,7 @@
     </row>
     <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -3014,7 +3128,7 @@
     <row r="14" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -3029,7 +3143,7 @@
     </row>
     <row r="16" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -3045,7 +3159,7 @@
     <row r="17" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="18"/>
@@ -3060,7 +3174,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -3075,7 +3189,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -3090,7 +3204,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -3275,7 +3389,7 @@
     <row r="35" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="36" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -3290,7 +3404,7 @@
     </row>
     <row r="37" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3306,7 +3420,7 @@
     <row r="38" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="39" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -3321,7 +3435,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3441,7 +3555,7 @@
     <row r="49" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="50" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="18"/>
@@ -3456,7 +3570,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3716,10 +3830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3728,28 +3842,32 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="36.6" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60" t="s">
+      <c r="E1" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.6" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3761,779 +3879,924 @@
       <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:6" ht="36.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="64">
+        <v>10</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="65">
         <v>10</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="62" t="s">
+      <c r="F4" s="80"/>
+    </row>
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A5" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="66">
+        <v>10</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="65">
+        <v>10</v>
+      </c>
+      <c r="F6" s="80"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="66">
+        <v>10</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="65">
+        <v>10</v>
+      </c>
+      <c r="F8" s="80"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="66">
+        <v>10</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="67">
+        <v>10</v>
+      </c>
+      <c r="F10" s="79"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="67">
+        <v>10</v>
+      </c>
+      <c r="F11" s="79"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="65">
+        <v>10</v>
+      </c>
+      <c r="F12" s="80"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="66">
+        <v>10</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="67">
+        <v>10</v>
+      </c>
+      <c r="F14" s="79"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="65">
+        <v>10</v>
+      </c>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="68">
+        <v>10</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="69">
+        <v>10</v>
+      </c>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="70">
+        <v>10</v>
+      </c>
+      <c r="F18" s="84"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="66">
+        <v>10</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="67">
+        <v>10</v>
+      </c>
+      <c r="F20" s="79"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="65">
+        <v>10</v>
+      </c>
+      <c r="F21" s="80"/>
+    </row>
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A22" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="66">
+        <v>10</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="67">
+        <v>10</v>
+      </c>
+      <c r="F23" s="79"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="67">
+        <v>10</v>
+      </c>
+      <c r="F24" s="79"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="65">
+        <v>10</v>
+      </c>
+      <c r="F25" s="80"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="66">
+        <v>10</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="67">
+        <v>10</v>
+      </c>
+      <c r="F27" s="79"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="86"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="86"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="87"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="81"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="90"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="81"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F39" s="82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="83"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="83"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="A5" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="83"/>
+    </row>
+    <row r="43" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F43" s="83"/>
+    </row>
+    <row r="44" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="52"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="83"/>
+    </row>
+    <row r="45" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="52"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C45" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F45" s="84"/>
+    </row>
+    <row r="46" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="52"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="51"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="52"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="51"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="A22" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="51"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="51"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="72"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="72"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="75"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="53"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="77"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="51"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="53"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40" s="55"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C49" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="55"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="55"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="55"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="55"/>
-    </row>
-    <row r="45" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="56"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C50" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="51"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="51"/>
-    </row>
-    <row r="49" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="51"/>
-    </row>
-    <row r="50" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="79" t="s">
+      <c r="E50" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="61" t="s">
         <v>158</v>
-      </c>
-      <c r="D50" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="80" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSV/Comment.xlsx
+++ b/CSV/Comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C50B4-4B45-45AA-A7DC-6DFB33D77D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A172951-918F-409C-A775-CA1F296BD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3832,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4366,7 +4366,7 @@
         <v>159</v>
       </c>
       <c r="E28" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F28" s="85" t="s">
         <v>116</v>
@@ -4386,7 +4386,7 @@
         <v>177</v>
       </c>
       <c r="E29" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F29" s="86"/>
     </row>
@@ -4404,7 +4404,7 @@
         <v>160</v>
       </c>
       <c r="E30" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F30" s="86"/>
     </row>
@@ -4422,7 +4422,7 @@
         <v>178</v>
       </c>
       <c r="E31" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F31" s="87"/>
     </row>
@@ -4440,7 +4440,7 @@
         <v>161</v>
       </c>
       <c r="E32" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F32" s="88" t="s">
         <v>127</v>
@@ -4460,7 +4460,7 @@
         <v>179</v>
       </c>
       <c r="E33" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F33" s="81"/>
     </row>
@@ -4478,7 +4478,7 @@
         <v>162</v>
       </c>
       <c r="E34" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F34" s="89" t="s">
         <v>28</v>
@@ -4498,7 +4498,7 @@
         <v>180</v>
       </c>
       <c r="E35" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F35" s="90"/>
     </row>
@@ -4516,7 +4516,7 @@
         <v>167</v>
       </c>
       <c r="E36" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F36" s="88" t="s">
         <v>134</v>
@@ -4536,7 +4536,7 @@
         <v>168</v>
       </c>
       <c r="E37" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F37" s="79"/>
     </row>
@@ -4554,7 +4554,7 @@
         <v>181</v>
       </c>
       <c r="E38" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F38" s="81"/>
     </row>
@@ -4572,7 +4572,7 @@
         <v>182</v>
       </c>
       <c r="E39" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F39" s="82" t="s">
         <v>34</v>
@@ -4592,7 +4592,7 @@
         <v>171</v>
       </c>
       <c r="E40" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F40" s="83"/>
     </row>
@@ -4610,7 +4610,7 @@
         <v>183</v>
       </c>
       <c r="E41" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F41" s="83"/>
     </row>
@@ -4628,7 +4628,7 @@
         <v>172</v>
       </c>
       <c r="E42" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F42" s="83"/>
     </row>
@@ -4646,7 +4646,7 @@
         <v>173</v>
       </c>
       <c r="E43" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F43" s="83"/>
     </row>
@@ -4664,7 +4664,7 @@
         <v>184</v>
       </c>
       <c r="E44" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F44" s="83"/>
     </row>
@@ -4682,7 +4682,7 @@
         <v>185</v>
       </c>
       <c r="E45" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F45" s="84"/>
     </row>
@@ -4700,7 +4700,7 @@
         <v>174</v>
       </c>
       <c r="E46" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F46" s="79" t="s">
         <v>39</v>
@@ -4720,7 +4720,7 @@
         <v>175</v>
       </c>
       <c r="E47" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F47" s="79"/>
     </row>
@@ -4738,7 +4738,7 @@
         <v>186</v>
       </c>
       <c r="E48" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F48" s="79"/>
     </row>
@@ -4756,7 +4756,7 @@
         <v>187</v>
       </c>
       <c r="E49" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F49" s="79"/>
     </row>
@@ -4774,7 +4774,7 @@
         <v>176</v>
       </c>
       <c r="E50" s="71">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F50" s="61" t="s">
         <v>158</v>
